--- a/5. Other/Đề xuất mua hàng/Năm 2025/Đề Xuất Mua Linh Kiện Sửa Chữa VNSH02(C43)_101125.xlsx
+++ b/5. Other/Đề xuất mua hàng/Năm 2025/Đề Xuất Mua Linh Kiện Sửa Chữa VNSH02(C43)_101125.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Đề xuất mua hàng\Năm 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Đề xuất mua hàng\Năm 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E8930-F2B5-477F-A832-A67619362396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E65DA-1F3D-4754-9C4D-FA28C32A2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>Module GPS</t>
   </si>
   <si>
-    <t>MODULE GPS GNSS SKG12D MT3333</t>
+    <t>MODULE GPS GNSS SKG12BL MT3337</t>
   </si>
 </sst>
 </file>
@@ -434,12 +434,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -498,6 +492,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,6 +611,50 @@
         <a:xfrm>
           <a:off x="7893326" y="74544"/>
           <a:ext cx="7164457" cy="5367129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69532CFB-56FC-B7DC-EFFC-AA97FB4615C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7984435" y="5425108"/>
+          <a:ext cx="5201478" cy="2898913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,50 +948,50 @@
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -988,32 +1032,32 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="49"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1022,10 +1066,10 @@
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="4">
@@ -1042,8 +1086,8 @@
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4">
         <v>50</v>
       </c>
@@ -1058,8 +1102,8 @@
       <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4">
         <v>40</v>
       </c>
@@ -1072,8 +1116,8 @@
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4">
         <v>20</v>
       </c>
@@ -1086,8 +1130,8 @@
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -1100,8 +1144,8 @@
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="4">
         <v>20</v>
       </c>
@@ -1114,8 +1158,8 @@
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="4">
         <v>30</v>
       </c>
@@ -1130,8 +1174,8 @@
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
@@ -1144,8 +1188,8 @@
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="4">
         <v>50</v>
       </c>
